--- a/server/game_results.xlsx
+++ b/server/game_results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -500,9 +500,275 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8">
+        <v>62517</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>62518</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>62519</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>62520</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>62521</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>62522</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>62523</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>62524</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>62526</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>62527</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>62528</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>62529</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>62530</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>62532</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>62534</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>62549</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>62550</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>62551</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>62554</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D26"/>
   </ignoredErrors>
 </worksheet>
 </file>